--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity) post adj.xlsx
@@ -180,7 +180,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2959872569363487</v>
+        <v>0.34555237919267157</v>
       </c>
       <c r="I2" t="n">
         <v>0.2905043050655766</v>
@@ -218,7 +218,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3305354825821602</v>
+        <v>0.3876794976652731</v>
       </c>
       <c r="I3" t="n">
         <v>0.32444827698339673</v>
@@ -256,7 +256,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4756373418939114</v>
+        <v>0.5750893131570926</v>
       </c>
       <c r="I4" t="n">
         <v>0.4664092692417163</v>
@@ -294,7 +294,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.29397100194615505</v>
+        <v>0.34344706757644433</v>
       </c>
       <c r="I5" t="n">
         <v>0.2885388064770747</v>
@@ -332,7 +332,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3286413136000995</v>
+        <v>0.3857737984670685</v>
       </c>
       <c r="I6" t="n">
         <v>0.3225676227500133</v>
@@ -370,7 +370,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47501345188231253</v>
+        <v>0.5738320428169389</v>
       </c>
       <c r="I7" t="n">
         <v>0.46561323720171016</v>
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.29167389233764385</v>
+        <v>0.34098620581449307</v>
       </c>
       <c r="I8" t="n">
         <v>0.2863108132430967</v>
@@ -446,7 +446,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3266091538935049</v>
+        <v>0.38349999591098716</v>
       </c>
       <c r="I9" t="n">
         <v>0.3205276296079611</v>
@@ -484,7 +484,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.47412822557529827</v>
+        <v>0.5730668832624579</v>
       </c>
       <c r="I10" t="n">
         <v>0.4647020705735003</v>
@@ -522,7 +522,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.28778189356004796</v>
+        <v>0.3397547874420034</v>
       </c>
       <c r="I11" t="n">
         <v>0.28240428798638506</v>
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.32271658606744025</v>
+        <v>0.38298858764842253</v>
       </c>
       <c r="I12" t="n">
         <v>0.3165798436524071</v>
@@ -598,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4720951657469333</v>
+        <v>0.5772130195938006</v>
       </c>
       <c r="I13" t="n">
         <v>0.4627071163031693</v>
@@ -636,7 +636,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13269835542191824</v>
+        <v>0.16899194693172231</v>
       </c>
       <c r="I14" t="n">
         <v>0.12899423779893335</v>
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16281078936438512</v>
+        <v>0.2111294760844131</v>
       </c>
       <c r="I15" t="n">
         <v>0.1581008951096126</v>
@@ -708,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.321428000994617</v>
+        <v>0.4530765053081575</v>
       </c>
       <c r="I16" t="n">
         <v>0.3126599915382455</v>
@@ -746,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13110783040132956</v>
+        <v>0.16627230779155872</v>
       </c>
       <c r="I17" t="n">
         <v>0.12743261261958277</v>
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.16068968889137825</v>
+        <v>0.20709157467052056</v>
       </c>
       <c r="I18" t="n">
         <v>0.15601678201500963</v>
@@ -818,7 +818,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3196332736807648</v>
+        <v>0.4459999396563068</v>
       </c>
       <c r="I19" t="n">
         <v>0.31081777746795514</v>
@@ -856,7 +856,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1293276131566044</v>
+        <v>0.16918269102748135</v>
       </c>
       <c r="I20" t="n">
         <v>0.12564236694662043</v>
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15872064753017776</v>
+        <v>0.21096272243797032</v>
       </c>
       <c r="I21" t="n">
         <v>0.15411885596609712</v>
@@ -928,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.31746522287554957</v>
+        <v>0.4565046548102613</v>
       </c>
       <c r="I22" t="n">
         <v>0.3086648315479442</v>
@@ -966,7 +966,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12556480431807632</v>
+        <v>0.16412022581379496</v>
       </c>
       <c r="I23" t="n">
         <v>0.12192173275586453</v>
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15406273811400611</v>
+        <v>0.2046147074978687</v>
       </c>
       <c r="I24" t="n">
         <v>0.14951165269962732</v>
@@ -1038,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.31405021719307635</v>
+        <v>0.4513818290265831</v>
       </c>
       <c r="I25" t="n">
         <v>0.30518091016621396</v>

--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity) post adj.xlsx
@@ -1748,13 +1748,13 @@
         <v>500.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3574231574169977</v>
+        <v>0.43863495788576135</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3513384249533872</v>
+        <v>0.3630248103979884</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9401226148072154</v>
+        <v>0.9346170460957299</v>
       </c>
       <c r="K50" t="n">
         <v>0.585</v>
@@ -1786,13 +1786,13 @@
         <v>1000.0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.37310537974909697</v>
+        <v>0.45016063666158945</v>
       </c>
       <c r="I51" t="n">
-        <v>0.36678232046479997</v>
+        <v>0.3738436491307331</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9394744500832859</v>
+        <v>0.9358041405270402</v>
       </c>
       <c r="K51" t="n">
         <v>0.585</v>
@@ -1824,13 +1824,13 @@
         <v>500.0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3814898205272944</v>
+        <v>0.4683167549964493</v>
       </c>
       <c r="I52" t="n">
-        <v>0.37489730126815085</v>
+        <v>0.3855145188987226</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9338425338529155</v>
+        <v>0.9299084917773106</v>
       </c>
       <c r="K52" t="n">
         <v>0.5707317073170731</v>
@@ -1862,13 +1862,13 @@
         <v>1000.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3963546869094163</v>
+        <v>0.48052306175562337</v>
       </c>
       <c r="I53" t="n">
-        <v>0.38949738327918565</v>
+        <v>0.3961790914058153</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9300805780527022</v>
+        <v>0.9277777828602707</v>
       </c>
       <c r="K53" t="n">
         <v>0.5707317073170731</v>
@@ -1900,13 +1900,13 @@
         <v>500.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4843513246855123</v>
+        <v>0.6001341269031876</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4751738177563711</v>
+        <v>0.4810608741695373</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8897183476304369</v>
+        <v>0.8859631684370214</v>
       </c>
       <c r="K54" t="n">
         <v>0.6131059245960503</v>
@@ -1938,13 +1938,13 @@
         <v>1000.0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.49156011796420634</v>
+        <v>0.6070759480047966</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4822528558910218</v>
+        <v>0.4857015243116632</v>
       </c>
       <c r="J55" t="n">
-        <v>0.885602328214415</v>
+        <v>0.8823827422081604</v>
       </c>
       <c r="K55" t="n">
         <v>0.6131059245960503</v>
@@ -1976,13 +1976,13 @@
         <v>500.0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4837111514143471</v>
+        <v>0.6026973709244893</v>
       </c>
       <c r="I56" t="n">
-        <v>0.473288626848154</v>
+        <v>0.4615690465860925</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7053616496473043</v>
+        <v>0.6975024444036702</v>
       </c>
       <c r="K56" t="n">
         <v>0.20192307692307693</v>
@@ -2014,13 +2014,13 @@
         <v>1000.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.49035185767783407</v>
+        <v>0.6125823129528681</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4798041028634935</v>
+        <v>0.4707572281275704</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7114637811926612</v>
+        <v>0.7064377034601697</v>
       </c>
       <c r="K57" t="n">
         <v>0.20192307692307693</v>
@@ -2052,13 +2052,13 @@
         <v>500.0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.35561496311864527</v>
+        <v>0.43753713539134587</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3495746317888847</v>
+        <v>0.3618371777166926</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9414886895033899</v>
+        <v>0.9363670729946213</v>
       </c>
       <c r="K58" t="n">
         <v>0.585</v>
@@ -2090,13 +2090,13 @@
         <v>1000.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3714078546230248</v>
+        <v>0.44873123331730574</v>
       </c>
       <c r="I59" t="n">
-        <v>0.36511050679110657</v>
+        <v>0.37232227245454896</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9379737934898259</v>
+        <v>0.936371186336746</v>
       </c>
       <c r="K59" t="n">
         <v>0.585</v>
@@ -2128,13 +2128,13 @@
         <v>500.0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.38027458530371494</v>
+        <v>0.46714340853170916</v>
       </c>
       <c r="I60" t="n">
-        <v>0.37367959850979093</v>
+        <v>0.38422272242407085</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9348249627012258</v>
+        <v>0.9309151164894813</v>
       </c>
       <c r="K60" t="n">
         <v>0.5707317073170731</v>
@@ -2166,13 +2166,13 @@
         <v>1000.0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.39470899155336514</v>
+        <v>0.4788930441706266</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3878875657426464</v>
+        <v>0.3946240902118915</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9312670558803913</v>
+        <v>0.928741624607968</v>
       </c>
       <c r="K61" t="n">
         <v>0.5707317073170731</v>
@@ -2204,13 +2204,13 @@
         <v>500.0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4832431232940701</v>
+        <v>0.5987150201638898</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4741315091095476</v>
+        <v>0.4802020592299726</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8907811250446236</v>
+        <v>0.8874907042794113</v>
       </c>
       <c r="K62" t="n">
         <v>0.6131059245960503</v>
@@ -2242,13 +2242,13 @@
         <v>1000.0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4911372370548787</v>
+        <v>0.6053188336328647</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4817710677027435</v>
+        <v>0.4849162238143424</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8873993134793298</v>
+        <v>0.8838910390516941</v>
       </c>
       <c r="K63" t="n">
         <v>0.6131059245960503</v>
@@ -2280,13 +2280,13 @@
         <v>500.0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.49420915638202917</v>
+        <v>0.6134416503292883</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4837032409161871</v>
+        <v>0.4741514975642168</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7116005527978359</v>
+        <v>0.7040553781778902</v>
       </c>
       <c r="K64" t="n">
         <v>0.1813189989017976</v>
@@ -2318,13 +2318,13 @@
         <v>1000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5029605619136307</v>
+        <v>0.6248218699194471</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4922702110676427</v>
+        <v>0.4851512172131817</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7170477333616001</v>
+        <v>0.7128896126238541</v>
       </c>
       <c r="K65" t="n">
         <v>0.1813189989017976</v>
@@ -2356,13 +2356,13 @@
         <v>500.0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.35405075649675277</v>
+        <v>0.4361227188276417</v>
       </c>
       <c r="I66" t="n">
-        <v>0.34795349314868546</v>
+        <v>0.36044666750149035</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9464456822904035</v>
+        <v>0.9423319511360465</v>
       </c>
       <c r="K66" t="n">
         <v>0.585</v>
@@ -2394,13 +2394,13 @@
         <v>1000.0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.36943408866903304</v>
+        <v>0.4468988560062078</v>
       </c>
       <c r="I67" t="n">
-        <v>0.36313847722653464</v>
+        <v>0.3705727805731415</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9404276499339386</v>
+        <v>0.9370052366178613</v>
       </c>
       <c r="K67" t="n">
         <v>0.585</v>
@@ -2432,13 +2432,13 @@
         <v>500.0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.37859183546910535</v>
+        <v>0.46569024384196567</v>
       </c>
       <c r="I68" t="n">
-        <v>0.37203835076975245</v>
+        <v>0.3826813296579573</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9364142519090722</v>
+        <v>0.9321446593271095</v>
       </c>
       <c r="K68" t="n">
         <v>0.5707317073170731</v>
@@ -2470,13 +2470,13 @@
         <v>1000.0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3929632142215351</v>
+        <v>0.47713438494937627</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3861306282374623</v>
+        <v>0.3930196905746845</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9327404799678836</v>
+        <v>0.9294424164795797</v>
       </c>
       <c r="K69" t="n">
         <v>0.5707317073170731</v>
@@ -2508,13 +2508,13 @@
         <v>500.0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4824855082711948</v>
+        <v>0.5986200107396835</v>
       </c>
       <c r="I70" t="n">
-        <v>0.47337960463920525</v>
+        <v>0.4796162605691722</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8922106603871817</v>
+        <v>0.8891583103889255</v>
       </c>
       <c r="K70" t="n">
         <v>0.6021220159151194</v>
@@ -2546,13 +2546,13 @@
         <v>1000.0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4903249032561367</v>
+        <v>0.6055823339489691</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4810133716011614</v>
+        <v>0.484511995391249</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8858071513808734</v>
+        <v>0.8829472764697494</v>
       </c>
       <c r="K71" t="n">
         <v>0.6021220159151194</v>
@@ -2584,13 +2584,13 @@
         <v>500.0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5055045217434904</v>
+        <v>0.6328190818382162</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4947577027058087</v>
+        <v>0.49137833979579826</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7206200528845353</v>
+        <v>0.7144182058837459</v>
       </c>
       <c r="K72" t="n">
         <v>0.17876167019875136</v>
@@ -2622,13 +2622,13 @@
         <v>1000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5151597019888227</v>
+        <v>0.6441918482053417</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5041818066067532</v>
+        <v>0.5021008506484954</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7262012536042826</v>
+        <v>0.7246411576930902</v>
       </c>
       <c r="K73" t="n">
         <v>0.17876167019875136</v>
@@ -2660,13 +2660,13 @@
         <v>500.0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.35052894081838637</v>
+        <v>0.4376642924688528</v>
       </c>
       <c r="I74" t="n">
-        <v>0.34447716862066663</v>
+        <v>0.35741210418847086</v>
       </c>
       <c r="J74" t="n">
-        <v>0.9480892531582157</v>
+        <v>0.9458477022938061</v>
       </c>
       <c r="K74" t="n">
         <v>0.585</v>
@@ -2698,13 +2698,13 @@
         <v>1000.0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3658590242924674</v>
+        <v>0.44744188290799947</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3596132747654427</v>
+        <v>0.36698055756806935</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9474979391866969</v>
+        <v>0.9457374113947336</v>
       </c>
       <c r="K75" t="n">
         <v>0.585</v>
@@ -2736,13 +2736,13 @@
         <v>500.0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.37470380407025283</v>
+        <v>0.4675278832497297</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3681345433991204</v>
+        <v>0.37949802359165796</v>
       </c>
       <c r="J76" t="n">
-        <v>0.9416634206409262</v>
+        <v>0.9369154539183855</v>
       </c>
       <c r="K76" t="n">
         <v>0.5707317073170731</v>
@@ -2774,13 +2774,13 @@
         <v>1000.0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.39001267698621195</v>
+        <v>0.4787983415551999</v>
       </c>
       <c r="I77" t="n">
-        <v>0.38321723041157074</v>
+        <v>0.38964515826649077</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9408166836303086</v>
+        <v>0.937777118390259</v>
       </c>
       <c r="K77" t="n">
         <v>0.5707317073170731</v>
@@ -2812,13 +2812,13 @@
         <v>500.0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.48025217592789726</v>
+        <v>0.6045678631717376</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4710767772201807</v>
+        <v>0.4779289679603796</v>
       </c>
       <c r="J78" t="n">
-        <v>0.8966722955436658</v>
+        <v>0.893326358770472</v>
       </c>
       <c r="K78" t="n">
         <v>0.5772843723313408</v>
@@ -2850,13 +2850,13 @@
         <v>1000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.489012969546045</v>
+        <v>0.6115101068004289</v>
       </c>
       <c r="I79" t="n">
-        <v>0.47960207225369816</v>
+        <v>0.48306951711245505</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8893550079862027</v>
+        <v>0.8858204504664009</v>
       </c>
       <c r="K79" t="n">
         <v>0.5772843723313408</v>
@@ -2888,13 +2888,13 @@
         <v>500.0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5224612133380188</v>
+        <v>0.6615662740497686</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5112533573367872</v>
+        <v>0.507628183794431</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7328140502424282</v>
+        <v>0.7251305222460557</v>
       </c>
       <c r="K80" t="n">
         <v>0.1520322680732237</v>
@@ -2926,13 +2926,13 @@
         <v>1000.0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5310051916993662</v>
+        <v>0.6735512153799404</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5196944280005175</v>
+        <v>0.5191161495529635</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7384248901860347</v>
+        <v>0.735444629626161</v>
       </c>
       <c r="K81" t="n">
         <v>0.1520322680732237</v>
@@ -2964,13 +2964,13 @@
         <v>500.0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1592969024007235</v>
+        <v>0.22586973718959594</v>
       </c>
       <c r="I82" t="n">
-        <v>0.154832369084097</v>
+        <v>0.16429040054844174</v>
       </c>
       <c r="J82" t="n">
-        <v>0.8991074454297681</v>
+        <v>0.9003789666592055</v>
       </c>
       <c r="K82" t="n">
         <v>0.22254335260115607</v>
@@ -3002,13 +3002,13 @@
         <v>1000.0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.17449765219508612</v>
+        <v>0.2493053859982219</v>
       </c>
       <c r="I83" t="n">
-        <v>0.16973043537392643</v>
+        <v>0.1795939487466853</v>
       </c>
       <c r="J83" t="n">
-        <v>0.9057416863636626</v>
+        <v>0.9125882307486876</v>
       </c>
       <c r="K83" t="n">
         <v>0.22254335260115607</v>
@@ -3040,13 +3040,13 @@
         <v>500.0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1761336602923255</v>
+        <v>0.25061776454541157</v>
       </c>
       <c r="I84" t="n">
-        <v>0.17122678539057148</v>
+        <v>0.18041338190564538</v>
       </c>
       <c r="J84" t="n">
-        <v>0.8944098495669853</v>
+        <v>0.8988200682158225</v>
       </c>
       <c r="K84" t="n">
         <v>0.23121387283236994</v>
@@ -3078,13 +3078,13 @@
         <v>1000.0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.19172099346500807</v>
+        <v>0.2747776566383355</v>
       </c>
       <c r="I85" t="n">
-        <v>0.18640608274769688</v>
+        <v>0.19549787723642728</v>
       </c>
       <c r="J85" t="n">
-        <v>0.8883110870404303</v>
+        <v>0.897101852992211</v>
       </c>
       <c r="K85" t="n">
         <v>0.23121387283236994</v>
@@ -3116,13 +3116,13 @@
         <v>500.0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2545434228469911</v>
+        <v>0.3822354674968856</v>
       </c>
       <c r="I86" t="n">
-        <v>0.24725142563481026</v>
+        <v>0.2565975511347773</v>
       </c>
       <c r="J86" t="n">
-        <v>0.85430219013852</v>
+        <v>0.8467672277596103</v>
       </c>
       <c r="K86" t="n">
         <v>0.1811320754716981</v>
@@ -3154,13 +3154,13 @@
         <v>1000.0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.26748122603226865</v>
+        <v>0.399694306734295</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2598909120871755</v>
+        <v>0.2678842185657224</v>
       </c>
       <c r="J87" t="n">
-        <v>0.8479976731928364</v>
+        <v>0.8498611359361142</v>
       </c>
       <c r="K87" t="n">
         <v>0.1811320754716981</v>
@@ -3192,13 +3192,13 @@
         <v>500.0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3498400006347972</v>
+        <v>0.5368831380473074</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3394127219029048</v>
+        <v>0.3491652769839345</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7216275091557032</v>
+        <v>0.7265665075323041</v>
       </c>
       <c r="K88" t="n">
         <v>0.07118055555555555</v>
@@ -3230,13 +3230,13 @@
         <v>1000.0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.35782509521286454</v>
+        <v>0.5514387548074499</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3469226503183765</v>
+        <v>0.3549893272148126</v>
       </c>
       <c r="J89" t="n">
-        <v>0.739522186422542</v>
+        <v>0.7354312346147429</v>
       </c>
       <c r="K89" t="n">
         <v>0.07118055555555555</v>
@@ -3268,13 +3268,13 @@
         <v>500.0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1581249279609921</v>
+        <v>0.22088195652035358</v>
       </c>
       <c r="I90" t="n">
-        <v>0.15364563219785884</v>
+        <v>0.16308834762972346</v>
       </c>
       <c r="J90" t="n">
-        <v>0.8988743274136869</v>
+        <v>0.902880110597638</v>
       </c>
       <c r="K90" t="n">
         <v>0.22254335260115607</v>
@@ -3306,13 +3306,13 @@
         <v>1000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.17287209429135122</v>
+        <v>0.24241507934257545</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1681433085203618</v>
+        <v>0.17831961710457897</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9081389850392315</v>
+        <v>0.9181622463144251</v>
       </c>
       <c r="K91" t="n">
         <v>0.22254335260115607</v>
@@ -3344,13 +3344,13 @@
         <v>500.0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1746663909602237</v>
+        <v>0.24446611753683753</v>
       </c>
       <c r="I92" t="n">
-        <v>0.16978771432103307</v>
+        <v>0.17916762116129123</v>
       </c>
       <c r="J92" t="n">
-        <v>0.8969891790704495</v>
+        <v>0.900101534619202</v>
       </c>
       <c r="K92" t="n">
         <v>0.23121387283236994</v>
@@ -3382,13 +3382,13 @@
         <v>1000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.19021232710673525</v>
+        <v>0.26739345489994765</v>
       </c>
       <c r="I93" t="n">
-        <v>0.184906618741312</v>
+        <v>0.19451020501312577</v>
       </c>
       <c r="J93" t="n">
-        <v>0.8941008312409171</v>
+        <v>0.9013181885151216</v>
       </c>
       <c r="K93" t="n">
         <v>0.23121387283236994</v>
@@ -3420,13 +3420,13 @@
         <v>500.0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2538141548605519</v>
+        <v>0.3690547108348088</v>
       </c>
       <c r="I94" t="n">
-        <v>0.24659560474264297</v>
+        <v>0.2551938177405046</v>
       </c>
       <c r="J94" t="n">
-        <v>0.862108744985033</v>
+        <v>0.8496273135598608</v>
       </c>
       <c r="K94" t="n">
         <v>0.1794228356336261</v>
@@ -3458,13 +3458,13 @@
         <v>1000.0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2664853575950508</v>
+        <v>0.3886661295050017</v>
       </c>
       <c r="I95" t="n">
-        <v>0.25889564067087023</v>
+        <v>0.26710335085162495</v>
       </c>
       <c r="J95" t="n">
-        <v>0.8551404843973482</v>
+        <v>0.8557747256178135</v>
       </c>
       <c r="K95" t="n">
         <v>0.1794228356336261</v>
@@ -3496,13 +3496,13 @@
         <v>500.0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.35351559009761285</v>
+        <v>0.5525933302602705</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3428983413534665</v>
+        <v>0.3531240994456845</v>
       </c>
       <c r="J96" t="n">
-        <v>0.731255491968154</v>
+        <v>0.7330656212540674</v>
       </c>
       <c r="K96" t="n">
         <v>0.06874115983026874</v>
@@ -3534,13 +3534,13 @@
         <v>1000.0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.36057067586482183</v>
+        <v>0.5659090269529274</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3496305935640569</v>
+        <v>0.3582162813838232</v>
       </c>
       <c r="J97" t="n">
-        <v>0.7461440806184977</v>
+        <v>0.740475508289047</v>
       </c>
       <c r="K97" t="n">
         <v>0.06874115983026874</v>
@@ -3572,13 +3572,13 @@
         <v>500.0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1569031310144939</v>
+        <v>0.22634670548068822</v>
       </c>
       <c r="I98" t="n">
-        <v>0.15241064738566384</v>
+        <v>0.16183576798394156</v>
       </c>
       <c r="J98" t="n">
-        <v>0.8986970532132038</v>
+        <v>0.9089902989296375</v>
       </c>
       <c r="K98" t="n">
         <v>0.22254335260115607</v>
@@ -3610,13 +3610,13 @@
         <v>1000.0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.171239510841614</v>
+        <v>0.248210492354369</v>
       </c>
       <c r="I99" t="n">
-        <v>0.16650838668101092</v>
+        <v>0.1768753320109386</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9088164581016157</v>
+        <v>0.9263260963953608</v>
       </c>
       <c r="K99" t="n">
         <v>0.22254335260115607</v>
@@ -3648,13 +3648,13 @@
         <v>500.0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.17368824178615366</v>
+        <v>0.25011618207751274</v>
       </c>
       <c r="I100" t="n">
-        <v>0.16880192183904577</v>
+        <v>0.17769018039522788</v>
       </c>
       <c r="J100" t="n">
-        <v>0.8973596354360297</v>
+        <v>0.9019317097492052</v>
       </c>
       <c r="K100" t="n">
         <v>0.23121387283236994</v>
@@ -3686,13 +3686,13 @@
         <v>1000.0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.18893463450913972</v>
+        <v>0.2744473691475568</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1836338626812887</v>
+        <v>0.19330386321555984</v>
       </c>
       <c r="J101" t="n">
-        <v>0.8974021148567186</v>
+        <v>0.9086742454621043</v>
       </c>
       <c r="K101" t="n">
         <v>0.23121387283236994</v>
@@ -3724,13 +3724,13 @@
         <v>500.0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2523718613353762</v>
+        <v>0.3794151113876179</v>
       </c>
       <c r="I102" t="n">
-        <v>0.24527568227066543</v>
+        <v>0.2539320084405096</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8624003259288823</v>
+        <v>0.8525367529241569</v>
       </c>
       <c r="K102" t="n">
         <v>0.1794228356336261</v>
@@ -3762,13 +3762,13 @@
         <v>1000.0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2655289809907819</v>
+        <v>0.400022746685518</v>
       </c>
       <c r="I103" t="n">
-        <v>0.25796466523228967</v>
+        <v>0.2660481859775076</v>
       </c>
       <c r="J103" t="n">
-        <v>0.8549130837541176</v>
+        <v>0.8565947922286279</v>
       </c>
       <c r="K103" t="n">
         <v>0.1794228356336261</v>
@@ -3800,13 +3800,13 @@
         <v>500.0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3554483573735266</v>
+        <v>0.5529829679181058</v>
       </c>
       <c r="I104" t="n">
-        <v>0.34484002305926115</v>
+        <v>0.35480409886134956</v>
       </c>
       <c r="J104" t="n">
-        <v>0.7386433814119887</v>
+        <v>0.7477288443895048</v>
       </c>
       <c r="K104" t="n">
         <v>0.06731707317073171</v>
@@ -3838,13 +3838,13 @@
         <v>1000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.36227221189116876</v>
+        <v>0.5657516951853707</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3512514434318476</v>
+        <v>0.35957018905786364</v>
       </c>
       <c r="J105" t="n">
-        <v>0.7550796038729684</v>
+        <v>0.7478640621485871</v>
       </c>
       <c r="K105" t="n">
         <v>0.06731707317073171</v>
@@ -3876,13 +3876,13 @@
         <v>500.0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.15413461073785842</v>
+        <v>0.22361753792528932</v>
       </c>
       <c r="I106" t="n">
-        <v>0.14973537431698264</v>
+        <v>0.15905038136819913</v>
       </c>
       <c r="J106" t="n">
-        <v>0.9107442401496639</v>
+        <v>0.9162607813600938</v>
       </c>
       <c r="K106" t="n">
         <v>0.22254335260115607</v>
@@ -3914,13 +3914,13 @@
         <v>1000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.16864437288818396</v>
+        <v>0.24571810447953296</v>
       </c>
       <c r="I107" t="n">
-        <v>0.16389113269707395</v>
+        <v>0.17408716656362683</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9228660668760041</v>
+        <v>0.9300032397167947</v>
       </c>
       <c r="K107" t="n">
         <v>0.22254335260115607</v>
@@ -3952,13 +3952,13 @@
         <v>500.0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.17070802728273937</v>
+        <v>0.2467672930947304</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1658973549432869</v>
+        <v>0.17502234762958266</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9035113836037684</v>
+        <v>0.9103491390155</v>
       </c>
       <c r="K108" t="n">
         <v>0.23121387283236994</v>
@@ -3990,13 +3990,13 @@
         <v>1000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1856270943303634</v>
+        <v>0.2703062955766027</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1805077316741138</v>
+        <v>0.1902200415465858</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9081374558859425</v>
+        <v>0.918599485511628</v>
       </c>
       <c r="K109" t="n">
         <v>0.23121387283236994</v>
@@ -4028,13 +4028,13 @@
         <v>500.0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.25123932460394144</v>
+        <v>0.37810374848827205</v>
       </c>
       <c r="I110" t="n">
-        <v>0.24407958846367953</v>
+        <v>0.252108727030656</v>
       </c>
       <c r="J110" t="n">
-        <v>0.8676457271209275</v>
+        <v>0.8584879589924524</v>
       </c>
       <c r="K110" t="n">
         <v>0.1794228356336261</v>
@@ -4066,13 +4066,13 @@
         <v>1000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2633138484529787</v>
+        <v>0.3983850402256812</v>
       </c>
       <c r="I111" t="n">
-        <v>0.25578103678818287</v>
+        <v>0.2638211891782317</v>
       </c>
       <c r="J111" t="n">
-        <v>0.8555061285726355</v>
+        <v>0.8569015921802007</v>
       </c>
       <c r="K111" t="n">
         <v>0.1794228356336261</v>
@@ -4104,13 +4104,13 @@
         <v>500.0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3601956888214819</v>
+        <v>0.5675475883499489</v>
       </c>
       <c r="I112" t="n">
-        <v>0.34952226706387934</v>
+        <v>0.3602741565709849</v>
       </c>
       <c r="J112" t="n">
-        <v>0.7453872979702987</v>
+        <v>0.7553821852753453</v>
       </c>
       <c r="K112" t="n">
         <v>0.05870368012224628</v>
@@ -4142,13 +4142,13 @@
         <v>1000.0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3668980546955159</v>
+        <v>0.5783530996434374</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3556412393645556</v>
+        <v>0.3639550849245551</v>
       </c>
       <c r="J113" t="n">
-        <v>0.7592287739147532</v>
+        <v>0.7529694989050781</v>
       </c>
       <c r="K113" t="n">
         <v>0.05870368012224628</v>
@@ -15272,7 +15272,7 @@
         <v>0.0</v>
       </c>
       <c r="H468" t="n">
-        <v>0.1483084633254182</v>
+        <v>0.1705842483989448</v>
       </c>
       <c r="I468" t="n">
         <v>0.1459426122895988</v>
@@ -15366,7 +15366,7 @@
         <v>0.0</v>
       </c>
       <c r="H471" t="n">
-        <v>0.21733486310693856</v>
+        <v>0.2537091085644464</v>
       </c>
       <c r="I471" t="n">
         <v>0.21366710520140247</v>
@@ -15554,7 +15554,7 @@
         <v>0.0</v>
       </c>
       <c r="H477" t="n">
-        <v>0.14973539150752935</v>
+        <v>0.17427667230381746</v>
       </c>
       <c r="I477" t="n">
         <v>0.14732592951397422</v>
@@ -15648,7 +15648,7 @@
         <v>0.0</v>
       </c>
       <c r="H480" t="n">
-        <v>0.2193830982464015</v>
+        <v>0.2593197860960544</v>
       </c>
       <c r="I480" t="n">
         <v>0.21563775873102028</v>
@@ -15742,7 +15742,7 @@
         <v>0.0</v>
       </c>
       <c r="H483" t="n">
-        <v>0.4812519246572846</v>
+        <v>0.5877148022493028</v>
       </c>
       <c r="I483" t="n">
         <v>0.47259463134960916</v>

--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity) post adj.xlsx
@@ -14708,7 +14708,7 @@
         <v>0.0</v>
       </c>
       <c r="H450" t="n">
-        <v>0.14689528757596165</v>
+        <v>0.16858953560156226</v>
       </c>
       <c r="I450" t="n">
         <v>0.14456851756860947</v>
@@ -14802,7 +14802,7 @@
         <v>0.0</v>
       </c>
       <c r="H453" t="n">
-        <v>0.21526754477956273</v>
+        <v>0.2506990595250698</v>
       </c>
       <c r="I453" t="n">
         <v>0.21166184519947998</v>
@@ -14896,7 +14896,7 @@
         <v>0.0</v>
       </c>
       <c r="H456" t="n">
-        <v>0.4721423578167558</v>
+        <v>0.5672400372352663</v>
       </c>
       <c r="I456" t="n">
         <v>0.4637913489859315</v>
@@ -14990,7 +14990,7 @@
         <v>0.0</v>
       </c>
       <c r="H459" t="n">
-        <v>0.14761347000723288</v>
+        <v>0.16959586919537564</v>
       </c>
       <c r="I459" t="n">
         <v>0.14526802533533156</v>
@@ -15084,7 +15084,7 @@
         <v>0.0</v>
       </c>
       <c r="H462" t="n">
-        <v>0.21631129670121918</v>
+        <v>0.2522174721085172</v>
       </c>
       <c r="I462" t="n">
         <v>0.21267533848405162</v>
@@ -15178,7 +15178,7 @@
         <v>0.0</v>
       </c>
       <c r="H465" t="n">
-        <v>0.47442229898459337</v>
+        <v>0.5708582943798416</v>
       </c>
       <c r="I465" t="n">
         <v>0.4659987789494618</v>
@@ -15460,7 +15460,7 @@
         <v>0.0</v>
       </c>
       <c r="H474" t="n">
-        <v>0.4766998309809222</v>
+        <v>0.5744462353542303</v>
       </c>
       <c r="I474" t="n">
         <v>0.46820831910618216</v>
@@ -15836,7 +15836,7 @@
         <v>0.0</v>
       </c>
       <c r="H486" t="n">
-        <v>0.07425363083756886</v>
+        <v>0.09221492768115441</v>
       </c>
       <c r="I486" t="n">
         <v>0.07201294213015226</v>
@@ -15930,7 +15930,7 @@
         <v>0.0</v>
       </c>
       <c r="H489" t="n">
-        <v>0.10468205945141959</v>
+        <v>0.13337291110721164</v>
       </c>
       <c r="I489" t="n">
         <v>0.10162875637125846</v>
@@ -16024,7 +16024,7 @@
         <v>0.0</v>
       </c>
       <c r="H492" t="n">
-        <v>0.3048164425540589</v>
+        <v>0.42158488126254373</v>
       </c>
       <c r="I492" t="n">
         <v>0.29631601688758563</v>
@@ -16118,7 +16118,7 @@
         <v>0.0</v>
       </c>
       <c r="H495" t="n">
-        <v>0.07461383759963554</v>
+        <v>0.09280430546366548</v>
       </c>
       <c r="I495" t="n">
         <v>0.07235601526669282</v>
@@ -16212,7 +16212,7 @@
         <v>0.0</v>
       </c>
       <c r="H498" t="n">
-        <v>0.10518596119712655</v>
+        <v>0.1342669685291335</v>
       </c>
       <c r="I498" t="n">
         <v>0.10210952081795857</v>
@@ -16306,7 +16306,7 @@
         <v>0.0</v>
       </c>
       <c r="H501" t="n">
-        <v>0.30627191001828785</v>
+        <v>0.4249125336163775</v>
       </c>
       <c r="I501" t="n">
         <v>0.297714157994179</v>
@@ -16400,7 +16400,7 @@
         <v>0.0</v>
       </c>
       <c r="H504" t="n">
-        <v>0.07495319038937175</v>
+        <v>0.0962708057412151</v>
       </c>
       <c r="I504" t="n">
         <v>0.07267569318010755</v>
@@ -16494,7 +16494,7 @@
         <v>0.0</v>
       </c>
       <c r="H507" t="n">
-        <v>0.10566588803235699</v>
+        <v>0.13933305905214474</v>
       </c>
       <c r="I507" t="n">
         <v>0.10256679337748686</v>
@@ -16588,7 +16588,7 @@
         <v>0.0</v>
       </c>
       <c r="H510" t="n">
-        <v>0.3077275186424652</v>
+        <v>0.4414391705904866</v>
       </c>
       <c r="I510" t="n">
         <v>0.2991099157010856</v>
@@ -16682,7 +16682,7 @@
         <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.07570502615874335</v>
+        <v>0.09747808371718811</v>
       </c>
       <c r="I513" t="n">
         <v>0.07339592711105473</v>
@@ -16776,7 +16776,7 @@
         <v>0.0</v>
       </c>
       <c r="H516" t="n">
-        <v>0.10668019913839166</v>
+        <v>0.1411508501381854</v>
       </c>
       <c r="I516" t="n">
         <v>0.1035365318323776</v>
@@ -16870,7 +16870,7 @@
         <v>0.0</v>
       </c>
       <c r="H519" t="n">
-        <v>0.3105776851521384</v>
+        <v>0.4484259512648364</v>
       </c>
       <c r="I519" t="n">
         <v>0.30183848072477143</v>
@@ -23492,7 +23492,7 @@
         <v>0.0</v>
       </c>
       <c r="H738" t="n">
-        <v>0.35073854741863314</v>
+        <v>0.4138055386987942</v>
       </c>
       <c r="I738" t="n">
         <v>0.34492780216350927</v>
@@ -23530,7 +23530,7 @@
         <v>0.0</v>
       </c>
       <c r="H739" t="n">
-        <v>0.3813458162257829</v>
+        <v>0.45204127074181955</v>
       </c>
       <c r="I739" t="n">
         <v>0.3748561241167446</v>
@@ -23568,7 +23568,7 @@
         <v>0.0</v>
       </c>
       <c r="H740" t="n">
-        <v>0.49385111996977327</v>
+        <v>0.6076862767447769</v>
       </c>
       <c r="I740" t="n">
         <v>0.48464752705494435</v>
@@ -23606,7 +23606,7 @@
         <v>0.0</v>
       </c>
       <c r="H741" t="n">
-        <v>0.34955870565017894</v>
+        <v>0.41634433671684995</v>
       </c>
       <c r="I741" t="n">
         <v>0.3437081850927182</v>
@@ -23644,7 +23644,7 @@
         <v>0.0</v>
       </c>
       <c r="H742" t="n">
-        <v>0.3808975153199278</v>
+        <v>0.45511861535601505</v>
       </c>
       <c r="I742" t="n">
         <v>0.37438424974185075</v>
@@ -23682,7 +23682,7 @@
         <v>0.0</v>
       </c>
       <c r="H743" t="n">
-        <v>0.4939852533767666</v>
+        <v>0.612463052860169</v>
       </c>
       <c r="I743" t="n">
         <v>0.48478658941867375</v>
@@ -23720,7 +23720,7 @@
         <v>0.0</v>
       </c>
       <c r="H744" t="n">
-        <v>0.34788344099796353</v>
+        <v>0.42045499726815505</v>
       </c>
       <c r="I744" t="n">
         <v>0.3420248460117837</v>
@@ -23758,7 +23758,7 @@
         <v>0.0</v>
       </c>
       <c r="H745" t="n">
-        <v>0.3798239032816623</v>
+        <v>0.4609966490592809</v>
       </c>
       <c r="I745" t="n">
         <v>0.3733346853019948</v>
@@ -23796,7 +23796,7 @@
         <v>0.0</v>
       </c>
       <c r="H746" t="n">
-        <v>0.49376608802426764</v>
+        <v>0.6187774510741599</v>
       </c>
       <c r="I746" t="n">
         <v>0.48452345562557886</v>
@@ -23834,7 +23834,7 @@
         <v>0.0</v>
       </c>
       <c r="H747" t="n">
-        <v>0.3446261029907016</v>
+        <v>0.4252069277800576</v>
       </c>
       <c r="I747" t="n">
         <v>0.33882451084582615</v>
@@ -23872,7 +23872,7 @@
         <v>0.0</v>
       </c>
       <c r="H748" t="n">
-        <v>0.3771309992765831</v>
+        <v>0.46709079975879125</v>
       </c>
       <c r="I748" t="n">
         <v>0.3705812325407709</v>
@@ -23910,7 +23910,7 @@
         <v>0.0</v>
       </c>
       <c r="H749" t="n">
-        <v>0.4943750041258068</v>
+        <v>0.631438652803539</v>
       </c>
       <c r="I749" t="n">
         <v>0.48505380138983045</v>
@@ -23948,7 +23948,7 @@
         <v>0.0</v>
       </c>
       <c r="H750" t="n">
-        <v>0.17221771241609818</v>
+        <v>0.23067181739078993</v>
       </c>
       <c r="I750" t="n">
         <v>0.1672694004486726</v>
@@ -23986,7 +23986,7 @@
         <v>0.0</v>
       </c>
       <c r="H751" t="n">
-        <v>0.2070621337364389</v>
+        <v>0.2784115349054863</v>
       </c>
       <c r="I751" t="n">
         <v>0.20134132554829698</v>
@@ -24024,7 +24024,7 @@
         <v>0.0</v>
       </c>
       <c r="H752" t="n">
-        <v>0.3668008661810367</v>
+        <v>0.5140091996437202</v>
       </c>
       <c r="I752" t="n">
         <v>0.35688241822913064</v>
@@ -24062,7 +24062,7 @@
         <v>0.0</v>
       </c>
       <c r="H753" t="n">
-        <v>0.1701936566157785</v>
+        <v>0.22929721573002765</v>
       </c>
       <c r="I753" t="n">
         <v>0.16528750451580954</v>
@@ -24100,7 +24100,7 @@
         <v>0.0</v>
       </c>
       <c r="H754" t="n">
-        <v>0.20536313337238188</v>
+        <v>0.2778508134923607</v>
       </c>
       <c r="I754" t="n">
         <v>0.19958593096742766</v>
@@ -24138,7 +24138,7 @@
         <v>0.0</v>
       </c>
       <c r="H755" t="n">
-        <v>0.3659710581167682</v>
+        <v>0.5138149989822056</v>
       </c>
       <c r="I755" t="n">
         <v>0.3560477922275684</v>
@@ -24176,7 +24176,7 @@
         <v>0.0</v>
       </c>
       <c r="H756" t="n">
-        <v>0.1683491802913506</v>
+        <v>0.2356612075777277</v>
       </c>
       <c r="I756" t="n">
         <v>0.16346914482803945</v>
@@ -24214,7 +24214,7 @@
         <v>0.0</v>
       </c>
       <c r="H757" t="n">
-        <v>0.20383243718273372</v>
+        <v>0.2849752100388405</v>
       </c>
       <c r="I757" t="n">
         <v>0.19794314574204414</v>
@@ -24252,7 +24252,7 @@
         <v>0.0</v>
       </c>
       <c r="H758" t="n">
-        <v>0.3648154297843048</v>
+        <v>0.528547530047038</v>
       </c>
       <c r="I758" t="n">
         <v>0.354785934923182</v>
@@ -24290,7 +24290,7 @@
         <v>0.0</v>
       </c>
       <c r="H759" t="n">
-        <v>0.16467577577505113</v>
+        <v>0.2354632581860804</v>
       </c>
       <c r="I759" t="n">
         <v>0.15983221484143875</v>
@@ -24328,7 +24328,7 @@
         <v>0.0</v>
       </c>
       <c r="H760" t="n">
-        <v>0.19958949673227316</v>
+        <v>0.28034842619105316</v>
       </c>
       <c r="I760" t="n">
         <v>0.1936651106215198</v>
@@ -24366,7 +24366,7 @@
         <v>0.0</v>
       </c>
       <c r="H761" t="n">
-        <v>0.36221012942799474</v>
+        <v>0.5274664742141727</v>
       </c>
       <c r="I761" t="n">
         <v>0.3522234603221645</v>
